--- a/data/excel/2024/11/19.xlsx
+++ b/data/excel/2024/11/19.xlsx
@@ -52,6 +52,9 @@
     <t>95.00</t>
   </si>
   <si>
+    <t>Tomato Small(Local)</t>
+  </si>
+  <si>
     <t>70.00</t>
   </si>
   <si>
@@ -61,34 +64,37 @@
     <t>65.00</t>
   </si>
   <si>
-    <t>Tomato Small(Local)</t>
+    <t>83.75</t>
   </si>
   <si>
     <t>Tomato Small(Tunnel)</t>
   </si>
   <si>
-    <t>83.75</t>
-  </si>
-  <si>
     <t>Tomato Small(Indian)</t>
   </si>
   <si>
     <t>80.00</t>
   </si>
   <si>
+    <t>Potato Red</t>
+  </si>
+  <si>
     <t>75.00</t>
   </si>
   <si>
     <t>72.33</t>
   </si>
   <si>
-    <t>Potato Red</t>
+    <t>Potato Red(Indian)</t>
   </si>
   <si>
     <t>67.67</t>
   </si>
   <si>
-    <t>Potato Red(Indian)</t>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>59.00</t>
   </si>
   <si>
     <t>Potato White</t>
@@ -97,12 +103,6 @@
     <t>62.00</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
-    <t>59.00</t>
-  </si>
-  <si>
     <t>Onion Dry (Indian)</t>
   </si>
   <si>
@@ -115,16 +115,19 @@
     <t>107.67</t>
   </si>
   <si>
+    <t>Carrot(Local)</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
     <t>140.00</t>
   </si>
   <si>
     <t>145.00</t>
   </si>
   <si>
-    <t>Carrot(Local)</t>
-  </si>
-  <si>
-    <t>150.00</t>
+    <t>Carrot(Terai)</t>
   </si>
   <si>
     <t>130.00</t>
@@ -133,9 +136,6 @@
     <t>135.00</t>
   </si>
   <si>
-    <t>Carrot(Terai)</t>
-  </si>
-  <si>
     <t>Cabbage(Local)</t>
   </si>
   <si>
@@ -145,16 +145,19 @@
     <t>50.00</t>
   </si>
   <si>
+    <t>Cauli Local</t>
+  </si>
+  <si>
     <t>120.00</t>
   </si>
   <si>
-    <t>Cauli Local</t>
+    <t>Cauli Terai</t>
   </si>
   <si>
     <t>85.00</t>
   </si>
   <si>
-    <t>Cauli Terai</t>
+    <t>40.00</t>
   </si>
   <si>
     <t>45.00</t>
@@ -163,9 +166,6 @@
     <t>Raddish Red</t>
   </si>
   <si>
-    <t>40.00</t>
-  </si>
-  <si>
     <t>Raddish White(Local)</t>
   </si>
   <si>
@@ -190,12 +190,12 @@
     <t>Cowpea(Short)</t>
   </si>
   <si>
+    <t>125.00</t>
+  </si>
+  <si>
     <t>Green Peas</t>
   </si>
   <si>
-    <t>125.00</t>
-  </si>
-  <si>
     <t>French Bean(Local)</t>
   </si>
   <si>
@@ -238,15 +238,15 @@
     <t>Turnip</t>
   </si>
   <si>
+    <t>155.00</t>
+  </si>
+  <si>
+    <t>Okara</t>
+  </si>
+  <si>
     <t>160.00</t>
   </si>
   <si>
-    <t>155.00</t>
-  </si>
-  <si>
-    <t>Okara</t>
-  </si>
-  <si>
     <t>Sweet Potato</t>
   </si>
   <si>
@@ -295,6 +295,9 @@
     <t>Yam</t>
   </si>
   <si>
+    <t>200.00</t>
+  </si>
+  <si>
     <t>226.67</t>
   </si>
   <si>
@@ -304,7 +307,7 @@
     <t>250.00</t>
   </si>
   <si>
-    <t>200.00</t>
+    <t>Mushroom(Button)</t>
   </si>
   <si>
     <t>325.00</t>
@@ -316,21 +319,18 @@
     <t>313.33</t>
   </si>
   <si>
-    <t>Mushroom(Button)</t>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>1100.00</t>
+  </si>
+  <si>
+    <t>1150.00</t>
   </si>
   <si>
     <t>Asparagus</t>
   </si>
   <si>
-    <t>1200.00</t>
-  </si>
-  <si>
-    <t>1100.00</t>
-  </si>
-  <si>
-    <t>1150.00</t>
-  </si>
-  <si>
     <t>Brocauli</t>
   </si>
   <si>
@@ -343,18 +343,18 @@
     <t>Lettuce</t>
   </si>
   <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>Celery</t>
+  </si>
+  <si>
     <t>600.00</t>
   </si>
   <si>
     <t>500.00</t>
   </si>
   <si>
-    <t>550.00</t>
-  </si>
-  <si>
-    <t>Celery</t>
-  </si>
-  <si>
     <t>1800.00</t>
   </si>
   <si>
@@ -388,25 +388,28 @@
     <t>Bamboo Shoot</t>
   </si>
   <si>
+    <t>Tofu</t>
+  </si>
+  <si>
     <t>115.00</t>
   </si>
   <si>
-    <t>Tofu</t>
-  </si>
-  <si>
     <t>Gundruk</t>
   </si>
   <si>
     <t>276.67</t>
   </si>
   <si>
+    <t>Apple(Jholey)</t>
+  </si>
+  <si>
+    <t>260.00</t>
+  </si>
+  <si>
     <t>240.00</t>
   </si>
   <si>
-    <t>Apple(Jholey)</t>
-  </si>
-  <si>
-    <t>260.00</t>
+    <t>Apple(Fuji)</t>
   </si>
   <si>
     <t>280.00</t>
@@ -415,18 +418,15 @@
     <t>290.00</t>
   </si>
   <si>
-    <t>Apple(Fuji)</t>
+    <t>Banana</t>
+  </si>
+  <si>
+    <t>Per Dozen</t>
   </si>
   <si>
     <t>170.00</t>
   </si>
   <si>
-    <t>Banana</t>
-  </si>
-  <si>
-    <t>Per Dozen</t>
-  </si>
-  <si>
     <t>Lime</t>
   </si>
   <si>
@@ -457,13 +457,19 @@
     <t>Sweet Orange</t>
   </si>
   <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>326.67</t>
+  </si>
+  <si>
     <t>Mandarin</t>
   </si>
   <si>
-    <t>350.00</t>
-  </si>
-  <si>
-    <t>326.67</t>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>190.00</t>
   </si>
   <si>
     <t>Pineapple</t>
@@ -472,12 +478,6 @@
     <t>1 Pc</t>
   </si>
   <si>
-    <t>180.00</t>
-  </si>
-  <si>
-    <t>190.00</t>
-  </si>
-  <si>
     <t>Cucumber(Local)</t>
   </si>
   <si>
@@ -487,24 +487,24 @@
     <t>Lemon</t>
   </si>
   <si>
+    <t>Pear(Chinese)</t>
+  </si>
+  <si>
     <t>230.00</t>
   </si>
   <si>
-    <t>Pear(Chinese)</t>
-  </si>
-  <si>
     <t>Papaya(Nepali)</t>
   </si>
   <si>
     <t>Papaya(Indian)</t>
   </si>
   <si>
+    <t>Guava</t>
+  </si>
+  <si>
     <t>163.33</t>
   </si>
   <si>
-    <t>Guava</t>
-  </si>
-  <si>
     <t>Mombin</t>
   </si>
   <si>
@@ -550,37 +550,37 @@
     <t>Coriander Green</t>
   </si>
   <si>
+    <t>Garlic Dry Chinese</t>
+  </si>
+  <si>
     <t>320.00</t>
   </si>
   <si>
     <t>310.00</t>
   </si>
   <si>
-    <t>Garlic Dry Chinese</t>
-  </si>
-  <si>
     <t>Garlic Dry Nepali</t>
   </si>
   <si>
     <t>Clive Green</t>
   </si>
   <si>
+    <t>345.00</t>
+  </si>
+  <si>
+    <t>351.67</t>
+  </si>
+  <si>
+    <t>Fish Fresh(Rahu)</t>
+  </si>
+  <si>
     <t>360.00</t>
   </si>
   <si>
-    <t>345.00</t>
-  </si>
-  <si>
-    <t>351.67</t>
-  </si>
-  <si>
-    <t>Fish Fresh(Rahu)</t>
+    <t>263.33</t>
   </si>
   <si>
     <t>Fish Fresh(Bachuwa)</t>
-  </si>
-  <si>
-    <t>263.33</t>
   </si>
   <si>
     <t>Fish Fresh(Chhadi)</t>
@@ -944,19 +944,19 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
         <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -964,7 +964,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -973,10 +973,10 @@
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +993,10 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
         <v>13</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -1004,19 +1004,19 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7">
@@ -1024,19 +1024,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -1044,19 +1044,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
         <v>25</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -1084,19 +1084,19 @@
         <v>6</v>
       </c>
       <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>36</v>
-      </c>
-      <c r="E10" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="11">
@@ -1104,19 +1104,19 @@
         <v>6</v>
       </c>
       <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
         <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12">
@@ -1133,10 +1133,10 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13">
@@ -1150,13 +1150,13 @@
         <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
         <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
@@ -1164,13 +1164,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
         <v>44</v>
-      </c>
-      <c r="C14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
       </c>
       <c r="E14" t="s">
         <v>9</v>
@@ -1184,7 +1184,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -1196,7 +1196,7 @@
         <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16">
@@ -1204,7 +1204,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -1213,10 +1213,10 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -1230,7 +1230,7 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E17" t="s">
         <v>51</v>
@@ -1250,7 +1250,7 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" t="s">
         <v>51</v>
@@ -1273,10 +1273,10 @@
         <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20">
@@ -1290,13 +1290,13 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21">
@@ -1310,13 +1310,13 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" t="s">
         <v>36</v>
-      </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="22">
@@ -1333,10 +1333,10 @@
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23">
@@ -1344,19 +1344,19 @@
         <v>6</v>
       </c>
       <c r="B23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>58</v>
-      </c>
-      <c r="C23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24">
@@ -1370,7 +1370,7 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
         <v>9</v>
@@ -1390,7 +1390,7 @@
         <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E25" t="s">
         <v>9</v>
@@ -1410,7 +1410,7 @@
         <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E26" t="s">
         <v>9</v>
@@ -1430,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E27" t="s">
         <v>9</v>
@@ -1476,7 +1476,7 @@
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30">
@@ -1490,10 +1490,10 @@
         <v>8</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F30" t="s">
         <v>19</v>
@@ -1533,10 +1533,10 @@
         <v>42</v>
       </c>
       <c r="E32" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
@@ -1556,7 +1556,7 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34">
@@ -1570,7 +1570,7 @@
         <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E34" t="s">
         <v>51</v>
@@ -1593,10 +1593,10 @@
         <v>42</v>
       </c>
       <c r="E35" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36">
@@ -1610,13 +1610,13 @@
         <v>8</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36" t="s">
         <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37">
@@ -1633,10 +1633,10 @@
         <v>19</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
@@ -1644,19 +1644,19 @@
         <v>6</v>
       </c>
       <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
         <v>76</v>
       </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38" t="s">
         <v>74</v>
-      </c>
-      <c r="E38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="39">
@@ -1676,7 +1676,7 @@
         <v>19</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40">
@@ -1693,10 +1693,10 @@
         <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41">
@@ -1710,13 +1710,13 @@
         <v>8</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
         <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42">
@@ -1753,10 +1753,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44">
@@ -1790,7 +1790,7 @@
         <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E45" t="s">
         <v>9</v>
@@ -1810,13 +1810,13 @@
         <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E46" t="s">
         <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47">
@@ -1830,7 +1830,7 @@
         <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E47" t="s">
         <v>9</v>
@@ -1850,7 +1850,7 @@
         <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E48" t="s">
         <v>9</v>
@@ -1870,13 +1870,13 @@
         <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50">
@@ -1896,7 +1896,7 @@
         <v>19</v>
       </c>
       <c r="F50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51">
@@ -1904,19 +1904,19 @@
         <v>6</v>
       </c>
       <c r="B51" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" t="s">
+        <v>93</v>
+      </c>
+      <c r="F51" t="s">
         <v>94</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" t="s">
-        <v>95</v>
-      </c>
-      <c r="E51" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="52">
@@ -1924,19 +1924,19 @@
         <v>6</v>
       </c>
       <c r="B52" t="s">
+        <v>97</v>
+      </c>
+      <c r="C52" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" t="s">
         <v>100</v>
-      </c>
-      <c r="C52" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" t="s">
-        <v>97</v>
-      </c>
-      <c r="E52" t="s">
-        <v>98</v>
-      </c>
-      <c r="F52" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="53">
@@ -1944,19 +1944,19 @@
         <v>6</v>
       </c>
       <c r="B53" t="s">
+        <v>104</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
         <v>101</v>
       </c>
-      <c r="C53" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>102</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="54">
@@ -1970,13 +1970,13 @@
         <v>8</v>
       </c>
       <c r="D54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55">
@@ -1990,7 +1990,7 @@
         <v>8</v>
       </c>
       <c r="D55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E55" t="s">
         <v>9</v>
@@ -2016,7 +2016,7 @@
         <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>8</v>
       </c>
       <c r="D57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E57" t="s">
         <v>9</v>
@@ -2044,19 +2044,19 @@
         <v>6</v>
       </c>
       <c r="B58" t="s">
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>8</v>
+      </c>
+      <c r="D58" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" t="s">
         <v>112</v>
       </c>
-      <c r="C58" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
         <v>109</v>
-      </c>
-      <c r="E58" t="s">
-        <v>110</v>
-      </c>
-      <c r="F58" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="59">
@@ -2090,7 +2090,7 @@
         <v>8</v>
       </c>
       <c r="D60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E60" t="s">
         <v>9</v>
@@ -2113,7 +2113,7 @@
         <v>118</v>
       </c>
       <c r="E61" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F61" t="s">
         <v>119</v>
@@ -2133,10 +2133,10 @@
         <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63">
@@ -2150,13 +2150,13 @@
         <v>8</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64">
@@ -2184,19 +2184,19 @@
         <v>6</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C65" t="s">
         <v>8</v>
       </c>
       <c r="D65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E65" t="s">
         <v>30</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66">
@@ -2210,10 +2210,10 @@
         <v>8</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F66" t="s">
         <v>127</v>
@@ -2224,19 +2224,19 @@
         <v>6</v>
       </c>
       <c r="B67" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" t="s">
         <v>129</v>
       </c>
-      <c r="C67" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" t="s">
+      <c r="E67" t="s">
         <v>130</v>
       </c>
-      <c r="E67" t="s">
-        <v>128</v>
-      </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68">
@@ -2244,19 +2244,19 @@
         <v>6</v>
       </c>
       <c r="B68" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" t="s">
+        <v>8</v>
+      </c>
+      <c r="D68" t="s">
+        <v>99</v>
+      </c>
+      <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="C68" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" t="s">
-        <v>98</v>
-      </c>
-      <c r="E68" t="s">
-        <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="69">
@@ -2264,19 +2264,19 @@
         <v>6</v>
       </c>
       <c r="B69" t="s">
+        <v>134</v>
+      </c>
+      <c r="C69" t="s">
         <v>135</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>136</v>
       </c>
-      <c r="D69" t="s">
-        <v>134</v>
-      </c>
       <c r="E69" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70">
@@ -2290,13 +2290,13 @@
         <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71">
@@ -2410,13 +2410,13 @@
         <v>8</v>
       </c>
       <c r="D76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76" t="s">
         <v>74</v>
-      </c>
-      <c r="E76" t="s">
-        <v>36</v>
-      </c>
-      <c r="F76" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="77">
@@ -2424,19 +2424,19 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
+        <v>149</v>
+      </c>
+      <c r="C77" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" t="s">
         <v>147</v>
       </c>
-      <c r="C77" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="E77" t="s">
+        <v>99</v>
+      </c>
+      <c r="F77" t="s">
         <v>148</v>
-      </c>
-      <c r="E77" t="s">
-        <v>98</v>
-      </c>
-      <c r="F77" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="78">
@@ -2444,19 +2444,19 @@
         <v>6</v>
       </c>
       <c r="B78" t="s">
+        <v>152</v>
+      </c>
+      <c r="C78" t="s">
+        <v>153</v>
+      </c>
+      <c r="D78" t="s">
+        <v>93</v>
+      </c>
+      <c r="E78" t="s">
         <v>150</v>
       </c>
-      <c r="C78" t="s">
+      <c r="F78" t="s">
         <v>151</v>
-      </c>
-      <c r="D78" t="s">
-        <v>96</v>
-      </c>
-      <c r="E78" t="s">
-        <v>152</v>
-      </c>
-      <c r="F78" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="79">
@@ -2490,13 +2490,13 @@
         <v>8</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="81">
@@ -2513,10 +2513,10 @@
         <v>42</v>
       </c>
       <c r="E81" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82">
@@ -2524,19 +2524,19 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" t="s">
+        <v>96</v>
+      </c>
+      <c r="E82" t="s">
         <v>158</v>
       </c>
-      <c r="C82" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" t="s">
-        <v>95</v>
-      </c>
-      <c r="E82" t="s">
-        <v>157</v>
-      </c>
       <c r="F82" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="83">
@@ -2553,10 +2553,10 @@
         <v>42</v>
       </c>
       <c r="E83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="84">
@@ -2570,7 +2570,7 @@
         <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E84" t="s">
         <v>9</v>
@@ -2584,19 +2584,19 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
+        <v>161</v>
+      </c>
+      <c r="C85" t="s">
+        <v>8</v>
+      </c>
+      <c r="D85" t="s">
+        <v>150</v>
+      </c>
+      <c r="E85" t="s">
+        <v>34</v>
+      </c>
+      <c r="F85" t="s">
         <v>162</v>
-      </c>
-      <c r="C85" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" t="s">
-        <v>152</v>
-      </c>
-      <c r="E85" t="s">
-        <v>36</v>
-      </c>
-      <c r="F85" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="86">
@@ -2613,10 +2613,10 @@
         <v>42</v>
       </c>
       <c r="E86" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="87">
@@ -2630,13 +2630,13 @@
         <v>8</v>
       </c>
       <c r="D87" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" t="s">
+        <v>112</v>
+      </c>
+      <c r="F87" t="s">
         <v>109</v>
-      </c>
-      <c r="E87" t="s">
-        <v>110</v>
-      </c>
-      <c r="F87" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="88">
@@ -2650,13 +2650,13 @@
         <v>8</v>
       </c>
       <c r="D88" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F88" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89">
@@ -2670,13 +2670,13 @@
         <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E89" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F89" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="90">
@@ -2690,13 +2690,13 @@
         <v>8</v>
       </c>
       <c r="D90" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E90" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="91">
@@ -2713,10 +2713,10 @@
         <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="92">
@@ -2730,13 +2730,13 @@
         <v>8</v>
       </c>
       <c r="D92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E92" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93">
@@ -2770,13 +2770,13 @@
         <v>8</v>
       </c>
       <c r="D94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E94" t="s">
         <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="95">
@@ -2793,10 +2793,10 @@
         <v>19</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="96">
@@ -2810,10 +2810,10 @@
         <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E96" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F96" t="s">
         <v>173</v>
@@ -2830,13 +2830,13 @@
         <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E97" t="s">
         <v>30</v>
       </c>
       <c r="F97" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="98">
@@ -2850,13 +2850,13 @@
         <v>8</v>
       </c>
       <c r="D98" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E98" t="s">
+        <v>93</v>
+      </c>
+      <c r="F98" t="s">
         <v>96</v>
-      </c>
-      <c r="F98" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="99">
@@ -2884,19 +2884,19 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
+        <v>178</v>
+      </c>
+      <c r="C100" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" t="s">
+        <v>179</v>
+      </c>
+      <c r="E100" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100" t="s">
         <v>180</v>
-      </c>
-      <c r="C100" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" t="s">
-        <v>178</v>
-      </c>
-      <c r="E100" t="s">
-        <v>98</v>
-      </c>
-      <c r="F100" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="101">
@@ -2910,13 +2910,13 @@
         <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F101" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="102">
@@ -2930,13 +2930,13 @@
         <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E102" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F102" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="103">
@@ -2944,19 +2944,19 @@
         <v>6</v>
       </c>
       <c r="B103" t="s">
+        <v>185</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
         <v>186</v>
       </c>
-      <c r="C103" t="s">
-        <v>8</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>183</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>184</v>
-      </c>
-      <c r="F103" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="104">
@@ -2964,19 +2964,19 @@
         <v>6</v>
       </c>
       <c r="B104" t="s">
+        <v>188</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" t="s">
+        <v>132</v>
+      </c>
+      <c r="E104" t="s">
+        <v>96</v>
+      </c>
+      <c r="F104" t="s">
         <v>187</v>
-      </c>
-      <c r="C104" t="s">
-        <v>8</v>
-      </c>
-      <c r="D104" t="s">
-        <v>131</v>
-      </c>
-      <c r="E104" t="s">
-        <v>95</v>
-      </c>
-      <c r="F104" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="105">
@@ -2990,13 +2990,13 @@
         <v>8</v>
       </c>
       <c r="D105" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E105" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F105" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="106">
@@ -3010,13 +3010,13 @@
         <v>191</v>
       </c>
       <c r="D106" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E106" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F106" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
